--- a/document/QC/TestCase_UI/movies_home.xlsx
+++ b/document/QC/TestCase_UI/movies_home.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="MOVIE0101" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="113">
   <si>
     <t>Screen Code</t>
   </si>
@@ -392,6 +392,9 @@
   <si>
     <t>เมื่อกดปุ่มจะเข้าสู่หน้าจอ "ภาพยนต์[หมวดหมู่]" โดยแสดงภาพยนต์ทั้งหมด ที่มีหมวดหมู่เดียวกัน</t>
   </si>
+  <si>
+    <t>1.0.0</t>
+  </si>
 </sst>
 </file>
 
@@ -399,7 +402,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -584,12 +587,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -601,15 +601,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="3"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -621,12 +612,6 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
@@ -645,20 +630,8 @@
       <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -675,9 +648,48 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -685,15 +697,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="3"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1005,8 +1008,8 @@
   </sheetPr>
   <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F94" sqref="F94"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -1014,87 +1017,89 @@
     <col min="1" max="1" width="8.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="43.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="56" style="27" customWidth="1"/>
+    <col min="4" max="4" width="56" style="21" customWidth="1"/>
     <col min="5" max="5" width="17" style="1" customWidth="1"/>
     <col min="6" max="6" width="36.7109375" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
+      <c r="B1" s="37"/>
       <c r="C1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="23"/>
+      <c r="D1" s="17"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19"/>
+      <c r="B2" s="37"/>
       <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="23"/>
+      <c r="D2" s="17"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="19"/>
+      <c r="B3" s="37"/>
       <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="23"/>
+      <c r="D3" s="17"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="19"/>
+      <c r="B4" s="37"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="23"/>
+      <c r="D4" s="17"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="6">
+      <c r="B5" s="37"/>
+      <c r="C5" s="5">
         <v>241478</v>
       </c>
-      <c r="D5" s="23"/>
+      <c r="D5" s="17"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="19"/>
+      <c r="B6" s="37"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="23"/>
+      <c r="D6" s="17"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="23"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" s="17"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
@@ -1102,7 +1107,7 @@
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="23"/>
+      <c r="D8" s="17"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
@@ -1110,14 +1115,14 @@
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="24" t="s">
+      <c r="C9" s="42"/>
+      <c r="D9" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="3" t="s">
@@ -1125,1009 +1130,1010 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="15">
+      <c r="A10" s="11">
         <v>1</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="35"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="25"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="16">
+      <c r="A11" s="12">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="8"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="17"/>
-      <c r="B12" s="14" t="s">
+      <c r="A12" s="13"/>
+      <c r="B12" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="21" t="s">
+      <c r="C12" s="39"/>
+      <c r="D12" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="8"/>
-    </row>
-    <row r="13" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="17"/>
-      <c r="B13" s="14" t="s">
+      <c r="E12" s="6"/>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="13"/>
+      <c r="B13" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="21" t="s">
+      <c r="C13" s="39"/>
+      <c r="D13" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="8"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="7"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="16">
+      <c r="A14" s="12">
         <v>2</v>
       </c>
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="42"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="38"/>
-    </row>
-    <row r="15" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="18">
+      <c r="C14" s="45"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="28"/>
+    </row>
+    <row r="15" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="14">
         <v>2.1</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="22" t="s">
+      <c r="C15" s="32"/>
+      <c r="D15" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="8"/>
-    </row>
-    <row r="16" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="18">
+      <c r="E15" s="6"/>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="14">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="22" t="s">
+      <c r="C16" s="32"/>
+      <c r="D16" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="8"/>
-    </row>
-    <row r="17" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="18">
+      <c r="E16" s="6"/>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="14">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="22" t="s">
+      <c r="C17" s="32"/>
+      <c r="D17" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="8"/>
-    </row>
-    <row r="18" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="18">
+      <c r="E17" s="6"/>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="14">
         <v>2.4</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="22" t="s">
+      <c r="C18" s="32"/>
+      <c r="D18" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="8"/>
-    </row>
-    <row r="19" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="18">
+      <c r="E18" s="6"/>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="14">
         <v>2.5</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="21" t="s">
+      <c r="C19" s="32"/>
+      <c r="D19" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="8"/>
-    </row>
-    <row r="20" spans="1:6" s="11" customFormat="1" ht="42" x14ac:dyDescent="0.35">
-      <c r="A20" s="18">
+      <c r="E19" s="6"/>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="1:6" s="10" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+      <c r="A20" s="14">
         <v>2.6</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="21" t="s">
+      <c r="C20" s="32"/>
+      <c r="D20" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="8"/>
-    </row>
-    <row r="21" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="18">
+      <c r="E20" s="6"/>
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="14">
         <v>2.7</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="21" t="s">
+      <c r="C21" s="32"/>
+      <c r="D21" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="8"/>
-    </row>
-    <row r="22" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="18">
+      <c r="E21" s="6"/>
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="14">
         <v>2.8</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="21" t="s">
+      <c r="C22" s="32"/>
+      <c r="D22" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="8"/>
-    </row>
-    <row r="23" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="18">
+      <c r="E22" s="6"/>
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="14">
         <v>2.9</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="21" t="s">
+      <c r="C23" s="32"/>
+      <c r="D23" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="8"/>
-    </row>
-    <row r="24" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="18" t="s">
+      <c r="E23" s="6"/>
+      <c r="F23" s="7"/>
+    </row>
+    <row r="24" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="21" t="s">
+      <c r="C24" s="32"/>
+      <c r="D24" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="8"/>
-    </row>
-    <row r="25" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="18" t="s">
+      <c r="E24" s="6"/>
+      <c r="F24" s="7"/>
+    </row>
+    <row r="25" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="21" t="s">
+      <c r="C25" s="32"/>
+      <c r="D25" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="8"/>
-    </row>
-    <row r="26" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="18" t="s">
+      <c r="E25" s="6"/>
+      <c r="F25" s="7"/>
+    </row>
+    <row r="26" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="21" t="s">
+      <c r="C26" s="32"/>
+      <c r="D26" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="8"/>
-    </row>
-    <row r="27" spans="1:6" s="11" customFormat="1" ht="42" x14ac:dyDescent="0.35">
-      <c r="A27" s="18" t="s">
+      <c r="E26" s="6"/>
+      <c r="F26" s="7"/>
+    </row>
+    <row r="27" spans="1:6" s="10" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+      <c r="A27" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="21" t="s">
+      <c r="C27" s="32"/>
+      <c r="D27" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="8"/>
-    </row>
-    <row r="28" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="18" t="s">
+      <c r="E27" s="6"/>
+      <c r="F27" s="7"/>
+    </row>
+    <row r="28" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="22" t="s">
+      <c r="C28" s="32"/>
+      <c r="D28" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="8"/>
-    </row>
-    <row r="29" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="18" t="s">
+      <c r="E28" s="6"/>
+      <c r="F28" s="7"/>
+    </row>
+    <row r="29" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="12"/>
-      <c r="D29" s="22" t="s">
+      <c r="C29" s="32"/>
+      <c r="D29" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="8"/>
-    </row>
-    <row r="30" spans="1:6" s="11" customFormat="1" ht="42" x14ac:dyDescent="0.35">
-      <c r="A30" s="18"/>
-      <c r="B30" s="14" t="s">
+      <c r="E29" s="6"/>
+      <c r="F29" s="7"/>
+    </row>
+    <row r="30" spans="1:6" s="10" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+      <c r="A30" s="14"/>
+      <c r="B30" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="21" t="s">
+      <c r="C30" s="39"/>
+      <c r="D30" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="E30" s="7"/>
-      <c r="F30" s="8"/>
-    </row>
-    <row r="31" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="18" t="s">
+      <c r="E30" s="6"/>
+      <c r="F30" s="7"/>
+    </row>
+    <row r="31" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="22" t="s">
+      <c r="C31" s="32"/>
+      <c r="D31" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="E31" s="7"/>
-      <c r="F31" s="8"/>
-    </row>
-    <row r="32" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="16" t="s">
+      <c r="E31" s="6"/>
+      <c r="F31" s="7"/>
+    </row>
+    <row r="32" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B32" s="39" t="s">
+      <c r="B32" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="C32" s="39"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="38"/>
-    </row>
-    <row r="33" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="18" t="s">
+      <c r="C32" s="38"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="28"/>
+    </row>
+    <row r="33" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="12"/>
-      <c r="D33" s="22" t="s">
+      <c r="C33" s="32"/>
+      <c r="D33" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="E33" s="7"/>
-      <c r="F33" s="8"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="7"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="12"/>
-      <c r="D34" s="22" t="s">
+      <c r="C34" s="32"/>
+      <c r="D34" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="E34" s="7"/>
-      <c r="F34" s="8"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="7"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="12"/>
-      <c r="D35" s="22" t="s">
+      <c r="C35" s="32"/>
+      <c r="D35" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E35" s="7"/>
-      <c r="F35" s="8"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="7"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" s="18" t="s">
+      <c r="A36" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="12"/>
-      <c r="D36" s="22" t="s">
+      <c r="C36" s="32"/>
+      <c r="D36" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="E36" s="7"/>
-      <c r="F36" s="8"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="7"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="12"/>
-      <c r="D37" s="22" t="s">
+      <c r="C37" s="32"/>
+      <c r="D37" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="E37" s="7"/>
-      <c r="F37" s="8"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="7"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" s="18" t="s">
+      <c r="A38" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C38" s="12"/>
-      <c r="D38" s="21" t="s">
+      <c r="C38" s="32"/>
+      <c r="D38" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="E38" s="7"/>
-      <c r="F38" s="8"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="7"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" s="18"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="25" t="s">
+      <c r="A39" s="14"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E39" s="7"/>
-      <c r="F39" s="8"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="7"/>
     </row>
     <row r="40" spans="1:6" ht="42" x14ac:dyDescent="0.35">
-      <c r="A40" s="18"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="26" t="s">
+      <c r="A40" s="14"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="E40" s="7"/>
-      <c r="F40" s="8"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="7"/>
     </row>
     <row r="41" spans="1:6" ht="42" x14ac:dyDescent="0.35">
-      <c r="A41" s="18"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="26" t="s">
+      <c r="A41" s="14"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="E41" s="7"/>
-      <c r="F41" s="8"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="7"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" s="18" t="s">
+      <c r="A42" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C42" s="12"/>
-      <c r="D42" s="25" t="s">
+      <c r="C42" s="32"/>
+      <c r="D42" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="E42" s="7"/>
-      <c r="F42" s="8"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="7"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" s="18"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="25" t="s">
+      <c r="A43" s="14"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="E43" s="7"/>
-      <c r="F43" s="8"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="7"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44" s="18"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="26" t="s">
+      <c r="A44" s="14"/>
+      <c r="B44" s="32"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="E44" s="7"/>
-      <c r="F44" s="8"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="7"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" s="18"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="26" t="s">
+      <c r="A45" s="14"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="E45" s="7"/>
-      <c r="F45" s="8"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="7"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" s="18"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="30" t="s">
+      <c r="A46" s="14"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="E46" s="7"/>
-      <c r="F46" s="8"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="7"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" s="18"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="30" t="s">
+      <c r="A47" s="14"/>
+      <c r="B47" s="32"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="E47" s="7"/>
-      <c r="F47" s="8"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="7"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48" s="18"/>
-      <c r="B48" s="28"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="25" t="s">
+      <c r="A48" s="14"/>
+      <c r="B48" s="33"/>
+      <c r="C48" s="34"/>
+      <c r="D48" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="E48" s="7"/>
-      <c r="F48" s="8"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="7"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A49" s="18"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="26" t="s">
+      <c r="A49" s="14"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="E49" s="7"/>
-      <c r="F49" s="8"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="7"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A50" s="18"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="26" t="s">
+      <c r="A50" s="14"/>
+      <c r="B50" s="32"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="E50" s="7"/>
-      <c r="F50" s="8"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="7"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A51" s="18"/>
-      <c r="B51" s="12"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="30" t="s">
+      <c r="A51" s="14"/>
+      <c r="B51" s="32"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="E51" s="7"/>
-      <c r="F51" s="8"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="7"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A52" s="18"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="30" t="s">
+      <c r="A52" s="14"/>
+      <c r="B52" s="32"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="E52" s="7"/>
-      <c r="F52" s="8"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="7"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A53" s="18"/>
-      <c r="B53" s="12"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="25" t="s">
+      <c r="A53" s="14"/>
+      <c r="B53" s="32"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="E53" s="7"/>
-      <c r="F53" s="8"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="7"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A54" s="18"/>
-      <c r="B54" s="12"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="26" t="s">
+      <c r="A54" s="14"/>
+      <c r="B54" s="32"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="E54" s="7"/>
-      <c r="F54" s="8"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="7"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A55" s="18"/>
-      <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="26" t="s">
+      <c r="A55" s="14"/>
+      <c r="B55" s="32"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="E55" s="7"/>
-      <c r="F55" s="8"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="7"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A56" s="18"/>
-      <c r="B56" s="12"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="26" t="s">
+      <c r="A56" s="14"/>
+      <c r="B56" s="32"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="E56" s="7"/>
-      <c r="F56" s="8"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="7"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A57" s="18"/>
-      <c r="B57" s="12"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="26" t="s">
+      <c r="A57" s="14"/>
+      <c r="B57" s="32"/>
+      <c r="C57" s="32"/>
+      <c r="D57" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="E57" s="7"/>
-      <c r="F57" s="8"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="7"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A58" s="18"/>
-      <c r="B58" s="12"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="30" t="s">
+      <c r="A58" s="14"/>
+      <c r="B58" s="32"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="E58" s="7"/>
-      <c r="F58" s="8"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="7"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A59" s="18"/>
-      <c r="B59" s="12"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="30" t="s">
+      <c r="A59" s="14"/>
+      <c r="B59" s="32"/>
+      <c r="C59" s="32"/>
+      <c r="D59" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="E59" s="7"/>
-      <c r="F59" s="8"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="7"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A60" s="18"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="26" t="s">
+      <c r="A60" s="14"/>
+      <c r="B60" s="32"/>
+      <c r="C60" s="32"/>
+      <c r="D60" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="E60" s="7"/>
-      <c r="F60" s="8"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="7"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A61" s="18"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="26" t="s">
+      <c r="A61" s="14"/>
+      <c r="B61" s="32"/>
+      <c r="C61" s="32"/>
+      <c r="D61" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="E61" s="7"/>
-      <c r="F61" s="8"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="7"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A62" s="18" t="s">
+      <c r="A62" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="B62" s="12" t="s">
+      <c r="B62" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="C62" s="12"/>
-      <c r="D62" s="25" t="s">
+      <c r="C62" s="32"/>
+      <c r="D62" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="E62" s="7"/>
-      <c r="F62" s="8"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="7"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A63" s="18"/>
-      <c r="B63" s="12"/>
-      <c r="C63" s="12"/>
-      <c r="D63" s="25" t="s">
+      <c r="A63" s="14"/>
+      <c r="B63" s="32"/>
+      <c r="C63" s="32"/>
+      <c r="D63" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="E63" s="7"/>
-      <c r="F63" s="8"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="7"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A64" s="18"/>
-      <c r="B64" s="12"/>
-      <c r="C64" s="12"/>
-      <c r="D64" s="26" t="s">
+      <c r="A64" s="14"/>
+      <c r="B64" s="32"/>
+      <c r="C64" s="32"/>
+      <c r="D64" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="E64" s="7"/>
-      <c r="F64" s="8"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="7"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A65" s="18"/>
-      <c r="B65" s="12"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="26" t="s">
+      <c r="A65" s="14"/>
+      <c r="B65" s="32"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="E65" s="7"/>
-      <c r="F65" s="8"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="7"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A66" s="18"/>
-      <c r="B66" s="12"/>
-      <c r="C66" s="12"/>
-      <c r="D66" s="30" t="s">
+      <c r="A66" s="14"/>
+      <c r="B66" s="32"/>
+      <c r="C66" s="32"/>
+      <c r="D66" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="E66" s="7"/>
-      <c r="F66" s="8"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="7"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A67" s="18"/>
-      <c r="B67" s="12"/>
-      <c r="C67" s="12"/>
-      <c r="D67" s="30" t="s">
+      <c r="A67" s="14"/>
+      <c r="B67" s="32"/>
+      <c r="C67" s="32"/>
+      <c r="D67" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="E67" s="7"/>
-      <c r="F67" s="8"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="7"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A68" s="18"/>
-      <c r="B68" s="12"/>
-      <c r="C68" s="12"/>
-      <c r="D68" s="25" t="s">
+      <c r="A68" s="14"/>
+      <c r="B68" s="32"/>
+      <c r="C68" s="32"/>
+      <c r="D68" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="E68" s="7"/>
-      <c r="F68" s="8"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="7"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A69" s="18"/>
-      <c r="B69" s="12"/>
-      <c r="C69" s="12"/>
-      <c r="D69" s="26" t="s">
+      <c r="A69" s="14"/>
+      <c r="B69" s="32"/>
+      <c r="C69" s="32"/>
+      <c r="D69" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="E69" s="7"/>
-      <c r="F69" s="8"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="7"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A70" s="18"/>
-      <c r="B70" s="12"/>
-      <c r="C70" s="12"/>
-      <c r="D70" s="26" t="s">
+      <c r="A70" s="14"/>
+      <c r="B70" s="32"/>
+      <c r="C70" s="32"/>
+      <c r="D70" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="E70" s="7"/>
-      <c r="F70" s="8"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="7"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A71" s="18"/>
-      <c r="B71" s="12"/>
-      <c r="C71" s="12"/>
-      <c r="D71" s="30" t="s">
+      <c r="A71" s="14"/>
+      <c r="B71" s="32"/>
+      <c r="C71" s="32"/>
+      <c r="D71" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="E71" s="7"/>
-      <c r="F71" s="8"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="7"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A72" s="18"/>
-      <c r="B72" s="12"/>
-      <c r="C72" s="12"/>
-      <c r="D72" s="30" t="s">
+      <c r="A72" s="14"/>
+      <c r="B72" s="32"/>
+      <c r="C72" s="32"/>
+      <c r="D72" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="E72" s="7"/>
-      <c r="F72" s="8"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="7"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A73" s="18"/>
-      <c r="B73" s="28"/>
-      <c r="C73" s="29"/>
-      <c r="D73" s="25" t="s">
+      <c r="A73" s="14"/>
+      <c r="B73" s="33"/>
+      <c r="C73" s="34"/>
+      <c r="D73" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="E73" s="7"/>
-      <c r="F73" s="8"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="7"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A74" s="18"/>
-      <c r="B74" s="12"/>
-      <c r="C74" s="12"/>
-      <c r="D74" s="26" t="s">
+      <c r="A74" s="14"/>
+      <c r="B74" s="32"/>
+      <c r="C74" s="32"/>
+      <c r="D74" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="E74" s="7"/>
-      <c r="F74" s="8"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="7"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A75" s="18"/>
-      <c r="B75" s="12"/>
-      <c r="C75" s="12"/>
-      <c r="D75" s="26" t="s">
+      <c r="A75" s="14"/>
+      <c r="B75" s="32"/>
+      <c r="C75" s="32"/>
+      <c r="D75" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="E75" s="7"/>
-      <c r="F75" s="8"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="7"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A76" s="18"/>
-      <c r="B76" s="12"/>
-      <c r="C76" s="12"/>
-      <c r="D76" s="30" t="s">
+      <c r="A76" s="14"/>
+      <c r="B76" s="32"/>
+      <c r="C76" s="32"/>
+      <c r="D76" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="E76" s="7"/>
-      <c r="F76" s="8"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="7"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A77" s="18"/>
-      <c r="B77" s="12"/>
-      <c r="C77" s="12"/>
-      <c r="D77" s="30" t="s">
+      <c r="A77" s="14"/>
+      <c r="B77" s="32"/>
+      <c r="C77" s="32"/>
+      <c r="D77" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="E77" s="7"/>
-      <c r="F77" s="8"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="7"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A78" s="18"/>
-      <c r="B78" s="28"/>
-      <c r="C78" s="29"/>
-      <c r="D78" s="25" t="s">
+      <c r="A78" s="14"/>
+      <c r="B78" s="33"/>
+      <c r="C78" s="34"/>
+      <c r="D78" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="E78" s="7"/>
-      <c r="F78" s="8"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="7"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A79" s="18"/>
-      <c r="B79" s="12"/>
-      <c r="C79" s="12"/>
-      <c r="D79" s="26" t="s">
+      <c r="A79" s="14"/>
+      <c r="B79" s="32"/>
+      <c r="C79" s="32"/>
+      <c r="D79" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="E79" s="7"/>
-      <c r="F79" s="8"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="7"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A80" s="18"/>
-      <c r="B80" s="12"/>
-      <c r="C80" s="12"/>
-      <c r="D80" s="26" t="s">
+      <c r="A80" s="14"/>
+      <c r="B80" s="32"/>
+      <c r="C80" s="32"/>
+      <c r="D80" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="E80" s="7"/>
-      <c r="F80" s="8"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="7"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A81" s="18"/>
-      <c r="B81" s="12"/>
-      <c r="C81" s="12"/>
-      <c r="D81" s="30" t="s">
+      <c r="A81" s="14"/>
+      <c r="B81" s="32"/>
+      <c r="C81" s="32"/>
+      <c r="D81" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="E81" s="7"/>
-      <c r="F81" s="8"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="7"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A82" s="18"/>
-      <c r="B82" s="12"/>
-      <c r="C82" s="12"/>
-      <c r="D82" s="30" t="s">
+      <c r="A82" s="14"/>
+      <c r="B82" s="32"/>
+      <c r="C82" s="32"/>
+      <c r="D82" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="E82" s="7"/>
-      <c r="F82" s="8"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="7"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A83" s="18"/>
-      <c r="B83" s="28"/>
-      <c r="C83" s="29"/>
-      <c r="D83" s="25" t="s">
+      <c r="A83" s="14"/>
+      <c r="B83" s="33"/>
+      <c r="C83" s="34"/>
+      <c r="D83" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="E83" s="7"/>
-      <c r="F83" s="8"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="7"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A84" s="18"/>
-      <c r="B84" s="12"/>
-      <c r="C84" s="12"/>
-      <c r="D84" s="25" t="s">
+      <c r="A84" s="14"/>
+      <c r="B84" s="32"/>
+      <c r="C84" s="32"/>
+      <c r="D84" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="E84" s="7"/>
-      <c r="F84" s="8"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="7"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A85" s="18"/>
-      <c r="B85" s="12"/>
-      <c r="C85" s="12"/>
-      <c r="D85" s="26" t="s">
+      <c r="A85" s="14"/>
+      <c r="B85" s="32"/>
+      <c r="C85" s="32"/>
+      <c r="D85" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="E85" s="7"/>
-      <c r="F85" s="8"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="7"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A86" s="18" t="s">
+      <c r="A86" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="B86" s="12" t="s">
+      <c r="B86" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="C86" s="12"/>
-      <c r="D86" s="22" t="s">
+      <c r="C86" s="32"/>
+      <c r="D86" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="E86" s="7"/>
-      <c r="F86" s="8"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="7"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A87" s="18" t="s">
+      <c r="A87" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="B87" s="12" t="s">
+      <c r="B87" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C87" s="12"/>
-      <c r="D87" s="22" t="s">
+      <c r="C87" s="32"/>
+      <c r="D87" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="E87" s="7"/>
-      <c r="F87" s="8"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="7"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A88" s="18" t="s">
+      <c r="A88" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="B88" s="12" t="s">
+      <c r="B88" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="C88" s="12"/>
-      <c r="D88" s="22" t="s">
+      <c r="C88" s="32"/>
+      <c r="D88" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="E88" s="7"/>
-      <c r="F88" s="8"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="7"/>
     </row>
     <row r="89" spans="1:6" ht="42" x14ac:dyDescent="0.35">
-      <c r="A89" s="18" t="s">
+      <c r="A89" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="B89" s="12" t="s">
+      <c r="B89" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="C89" s="12"/>
-      <c r="D89" s="25" t="s">
+      <c r="C89" s="32"/>
+      <c r="D89" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="E89" s="7"/>
-      <c r="F89" s="8"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="7"/>
     </row>
     <row r="90" spans="1:6" ht="42" x14ac:dyDescent="0.35">
-      <c r="A90" s="18" t="s">
+      <c r="A90" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="B90" s="12" t="s">
+      <c r="B90" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="C90" s="12"/>
-      <c r="D90" s="25" t="s">
+      <c r="C90" s="32"/>
+      <c r="D90" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="E90" s="7"/>
-      <c r="F90" s="8"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="7"/>
     </row>
     <row r="91" spans="1:6" ht="42" x14ac:dyDescent="0.35">
-      <c r="A91" s="18" t="s">
+      <c r="A91" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="B91" s="20" t="s">
+      <c r="B91" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="C91" s="12"/>
-      <c r="D91" s="25" t="s">
+      <c r="C91" s="32"/>
+      <c r="D91" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="E91" s="7"/>
-      <c r="F91" s="8"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="7"/>
     </row>
     <row r="92" spans="1:6" ht="42" x14ac:dyDescent="0.35">
-      <c r="A92" s="43"/>
-      <c r="B92" s="44" t="s">
+      <c r="A92" s="30"/>
+      <c r="B92" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="C92" s="44"/>
-      <c r="D92" s="45" t="s">
+      <c r="C92" s="36"/>
+      <c r="D92" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="E92" s="9"/>
-      <c r="F92" s="10"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="91">
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
     <mergeCell ref="B90:C90"/>
     <mergeCell ref="B91:C91"/>
     <mergeCell ref="B92:C92"/>
@@ -2144,45 +2150,44 @@
     <mergeCell ref="B89:C89"/>
     <mergeCell ref="B72:C72"/>
     <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B71:C71"/>
     <mergeCell ref="B74:C74"/>
     <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="35" fitToWidth="0" orientation="portrait" r:id="rId1"/>

--- a/document/QC/TestCase_UI/movies_home.xlsx
+++ b/document/QC/TestCase_UI/movies_home.xlsx
@@ -659,44 +659,44 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="3"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1009,7 +1009,7 @@
   <dimension ref="A1:F92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B13" sqref="B13:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -1024,10 +1024,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
+      <c r="B1" s="38"/>
       <c r="C1" s="2" t="s">
         <v>11</v>
       </c>
@@ -1036,10 +1036,10 @@
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="37"/>
+      <c r="B2" s="38"/>
       <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
@@ -1048,10 +1048,10 @@
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="37"/>
+      <c r="B3" s="38"/>
       <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
@@ -1060,20 +1060,20 @@
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="37"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="2"/>
       <c r="D4" s="17"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="37"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="5">
         <v>241478</v>
       </c>
@@ -1082,20 +1082,20 @@
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="37"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="2"/>
       <c r="D6" s="17"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="37"/>
+      <c r="B7" s="38"/>
       <c r="C7" s="2" t="s">
         <v>112</v>
       </c>
@@ -1115,10 +1115,10 @@
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="42"/>
+      <c r="C9" s="33"/>
       <c r="D9" s="18" t="s">
         <v>8</v>
       </c>
@@ -1133,10 +1133,10 @@
       <c r="A10" s="11">
         <v>1</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="41"/>
+      <c r="C10" s="40"/>
       <c r="D10" s="23"/>
       <c r="E10" s="24"/>
       <c r="F10" s="25"/>
@@ -1145,20 +1145,20 @@
       <c r="A11" s="12">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="43"/>
+      <c r="C11" s="34"/>
       <c r="D11" s="15"/>
       <c r="E11" s="6"/>
       <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="13"/>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="39"/>
+      <c r="C12" s="35"/>
       <c r="D12" s="15" t="s">
         <v>14</v>
       </c>
@@ -1167,10 +1167,10 @@
     </row>
     <row r="13" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="13"/>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="39"/>
+      <c r="C13" s="35"/>
       <c r="D13" s="15" t="s">
         <v>17</v>
       </c>
@@ -1181,10 +1181,10 @@
       <c r="A14" s="12">
         <v>2</v>
       </c>
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="45"/>
+      <c r="C14" s="37"/>
       <c r="D14" s="26"/>
       <c r="E14" s="27"/>
       <c r="F14" s="28"/>
@@ -1389,7 +1389,7 @@
       <c r="A29" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="35" t="s">
+      <c r="B29" s="41" t="s">
         <v>48</v>
       </c>
       <c r="C29" s="32"/>
@@ -1401,10 +1401,10 @@
     </row>
     <row r="30" spans="1:6" s="10" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A30" s="14"/>
-      <c r="B30" s="39" t="s">
+      <c r="B30" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="39"/>
+      <c r="C30" s="35"/>
       <c r="D30" s="15" t="s">
         <v>54</v>
       </c>
@@ -1429,10 +1429,10 @@
       <c r="A32" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B32" s="38" t="s">
+      <c r="B32" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="C32" s="38"/>
+      <c r="C32" s="42"/>
       <c r="D32" s="29"/>
       <c r="E32" s="27"/>
       <c r="F32" s="28"/>
@@ -1617,8 +1617,8 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="14"/>
-      <c r="B48" s="33"/>
-      <c r="C48" s="34"/>
+      <c r="B48" s="44"/>
+      <c r="C48" s="45"/>
       <c r="D48" s="19" t="s">
         <v>68</v>
       </c>
@@ -1871,8 +1871,8 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="14"/>
-      <c r="B73" s="33"/>
-      <c r="C73" s="34"/>
+      <c r="B73" s="44"/>
+      <c r="C73" s="45"/>
       <c r="D73" s="19" t="s">
         <v>68</v>
       </c>
@@ -1921,8 +1921,8 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="14"/>
-      <c r="B78" s="33"/>
-      <c r="C78" s="34"/>
+      <c r="B78" s="44"/>
+      <c r="C78" s="45"/>
       <c r="D78" s="19" t="s">
         <v>79</v>
       </c>
@@ -1971,8 +1971,8 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="14"/>
-      <c r="B83" s="33"/>
-      <c r="C83" s="34"/>
+      <c r="B83" s="44"/>
+      <c r="C83" s="45"/>
       <c r="D83" s="19" t="s">
         <v>85</v>
       </c>
@@ -2073,7 +2073,7 @@
       <c r="A91" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="B91" s="35" t="s">
+      <c r="B91" s="41" t="s">
         <v>48</v>
       </c>
       <c r="C91" s="32"/>
@@ -2085,10 +2085,10 @@
     </row>
     <row r="92" spans="1:6" ht="42" x14ac:dyDescent="0.35">
       <c r="A92" s="30"/>
-      <c r="B92" s="36" t="s">
+      <c r="B92" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="C92" s="36"/>
+      <c r="C92" s="43"/>
       <c r="D92" s="31" t="s">
         <v>111</v>
       </c>
@@ -2097,14 +2097,73 @@
     </row>
   </sheetData>
   <mergeCells count="91">
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B26:C26"/>
@@ -2121,75 +2180,16 @@
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="35" fitToWidth="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="49" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>